--- a/test_info/data/HU1-004/CP-004/objects.xlsx
+++ b/test_info/data/HU1-004/CP-004/objects.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_piedrahita\Documents\jp\bvc\tests\A2censoTest\test_info\data\HU1-004\CP-004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6012EE-519D-4976-8D89-33BB66124A16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522D2784-4F5C-4B36-A08A-78A915BEE1EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="4" r:id="rId1"/>
-    <sheet name="pqrs_fields" sheetId="5" r:id="rId2"/>
-    <sheet name="pqrs_data" sheetId="7" r:id="rId3"/>
-    <sheet name="send_pqrs" sheetId="8" r:id="rId4"/>
+    <sheet name="terms" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -54,163 +52,44 @@
     <t>SelectValue</t>
   </si>
   <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>tipoPqrs</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Indicativo</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>TipoPqrs</t>
-  </si>
-  <si>
-    <t>Asunto</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
-    <t>Acepta Politicas</t>
-  </si>
-  <si>
-    <t>Acepta Terminos</t>
-  </si>
-  <si>
-    <t>Juan Piedrahita</t>
-  </si>
-  <si>
-    <t>+57</t>
-  </si>
-  <si>
-    <t>Sugerencia</t>
-  </si>
-  <si>
-    <t>Tengo una sugerencia</t>
-  </si>
-  <si>
-    <t>Este es el detalle de la sugerencia</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>indicativo</t>
-  </si>
-  <si>
-    <t>celular</t>
-  </si>
-  <si>
-    <t>asunto</t>
-  </si>
-  <si>
-    <t>detalle</t>
-  </si>
-  <si>
-    <t>acepta_politicas</t>
-  </si>
-  <si>
-    <t>acepta_terminos</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>contactEmail</t>
-  </si>
-  <si>
-    <t>//*[@id="user-form"]/div[3]/div[1]/div/input</t>
-  </si>
-  <si>
-    <t>not_enabled</t>
-  </si>
-  <si>
-    <t>contactNumber</t>
-  </si>
-  <si>
-    <t>pqrsSubject</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>pqrsType</t>
-  </si>
-  <si>
-    <t>//*[@id="user-form"]/div[6]/div/div/img[1]</t>
-  </si>
-  <si>
-    <t>//*[@id="user-form"]/div[6]/div/div/img[2]</t>
-  </si>
-  <si>
-    <t>3193983103</t>
-  </si>
-  <si>
-    <t>checkbox</t>
-  </si>
-  <si>
-    <t>juan.piedrahita@bvc.com.co</t>
-  </si>
-  <si>
-    <t>send_pqrs_button</t>
-  </si>
-  <si>
-    <t>//*[@id="user-form"]/div[9]/button</t>
-  </si>
-  <si>
-    <t>confirmation_messagge</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[1]/div/div/form/div[2]/div/div[1]/p</t>
-  </si>
-  <si>
-    <t>pqrs_id</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[1]/div/div/form/div[2]/div/div[2]/p</t>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div/div[1]/div/div/form/img</t>
+  </si>
+  <si>
+    <t>modal_selector</t>
+  </si>
+  <si>
+    <t>modal_selectValue</t>
+  </si>
+  <si>
+    <t>//*[@id="user-form"]/div[6]/div/div/a[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="user-form"]/div[6]/div/div/a[2]</t>
+  </si>
+  <si>
+    <t>policies</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div/div[2]</t>
+  </si>
+  <si>
+    <t>close_select</t>
+  </si>
+  <si>
+    <t>close_value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,18 +112,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,7 +434,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,15 +480,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01823262-D91A-4A68-B2B8-C7EDEA2E2987}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,282 +502,66 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84F850D-DB23-4E7E-8DCD-0E8516B2A162}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="10" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D384285B-6BEE-4783-A164-E2E2C84D508B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5F3CE8-F274-4F08-9909-CCD40147E0B5}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>